--- a/file/算法与数据结构.xlsx
+++ b/file/算法与数据结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31100" windowHeight="15860" activeTab="3"/>
+    <workbookView windowWidth="19440" windowHeight="17260"/>
   </bookViews>
   <sheets>
     <sheet name="数组" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,140 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Big-O</t>
+  </si>
+  <si>
+    <t>Option Type</t>
+  </si>
+  <si>
+    <r>
+      <t>查询上一个（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Source Code Pro Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>prepend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>O(1)</t>
+  </si>
+  <si>
+    <r>
+      <t>查询下一个（ap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Source Code Pro Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>查询某一元素（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Source Code Pro Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lookup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>新增节点（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Source Code Pro Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>insert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <r>
+      <t>删除节点（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Source Code Pro Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
   <si>
     <t>单链表</t>
   </si>
@@ -107,12 +240,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,8 +267,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Source Code Pro Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4" tint="-0.5"/>
+      <name val="Source Code Pro Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Source Code Pro Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4" tint="-0.5"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,25 +314,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,24 +328,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,11 +359,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,16 +397,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,22 +434,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,7 +456,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,31 +534,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,25 +558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,37 +576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,31 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,25 +606,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,18 +673,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,6 +687,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,21 +730,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -576,17 +741,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,157 +759,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,16 +931,37 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -842,6 +1026,1899 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>145415</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>75565</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="组合 10"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2212975" y="645160"/>
+          <a:ext cx="1057910" cy="3377565"/>
+          <a:chOff x="3214" y="964"/>
+          <a:chExt cx="1690" cy="4739"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="矩形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3214" y="964"/>
+            <a:ext cx="1691" cy="777"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+                <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+                <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              </a:rPr>
+              <a:t>a[0]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="矩形 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3214" y="1738"/>
+            <a:ext cx="1691" cy="793"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+                <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+                <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              </a:rPr>
+              <a:t>a[1]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="矩形 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3214" y="2528"/>
+            <a:ext cx="1691" cy="795"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+                <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+                <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              </a:rPr>
+              <a:t>a[2]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="矩形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3214" y="3320"/>
+            <a:ext cx="1691" cy="797"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+                <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+                <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              </a:rPr>
+              <a:t>a[3]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="矩形 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3214" y="4114"/>
+            <a:ext cx="1691" cy="814"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+                <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+                <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              </a:rPr>
+              <a:t>...</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="矩形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3214" y="4925"/>
+            <a:ext cx="1691" cy="778"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+                <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+                <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              </a:rPr>
+              <a:t>a[n]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>140335</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="组合 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1080135" y="645160"/>
+          <a:ext cx="1073150" cy="3378835"/>
+          <a:chOff x="1406" y="936"/>
+          <a:chExt cx="1714" cy="4741"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="矩形 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1406" y="936"/>
+            <a:ext cx="1715" cy="738"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700" cmpd="sng">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+                <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              </a:rPr>
+              <a:t>0</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="矩形 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1406" y="1724"/>
+            <a:ext cx="1715" cy="736"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700" cmpd="sng">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+                <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="矩形 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1406" y="2510"/>
+            <a:ext cx="1715" cy="758"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700" cmpd="sng">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+                <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="矩形 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1406" y="3318"/>
+            <a:ext cx="1715" cy="760"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700" cmpd="sng">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+                <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="矩形 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1406" y="4128"/>
+            <a:ext cx="1715" cy="777"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700" cmpd="sng">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+                <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              </a:rPr>
+              <a:t>...</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="矩形 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1406" y="4955"/>
+            <a:ext cx="1715" cy="722"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700" cmpd="sng">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+                <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              </a:rPr>
+              <a:t>n</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+              <a:cs typeface="Source Code Pro Regular" panose="020B0509030403020204" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7667,7 +9744,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19763,7 +21840,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -29197,7 +31274,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -34835,7 +36912,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -34857,7 +36934,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5829300" y="681990"/>
+          <a:off x="5829300" y="692150"/>
           <a:ext cx="1534160" cy="567055"/>
           <a:chOff x="2384" y="1637"/>
           <a:chExt cx="2453" cy="836"/>
@@ -35164,7 +37241,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5829300" y="1332230"/>
+          <a:off x="5829300" y="1342390"/>
           <a:ext cx="1534160" cy="567055"/>
           <a:chOff x="2384" y="1637"/>
           <a:chExt cx="2453" cy="836"/>
@@ -35471,7 +37548,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5829300" y="1982470"/>
+          <a:off x="5829300" y="1992630"/>
           <a:ext cx="1534160" cy="579120"/>
           <a:chOff x="2384" y="1637"/>
           <a:chExt cx="2453" cy="836"/>
@@ -35778,7 +37855,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5829300" y="2644775"/>
+          <a:off x="5829300" y="2654935"/>
           <a:ext cx="1534160" cy="567055"/>
           <a:chOff x="2384" y="1637"/>
           <a:chExt cx="2453" cy="836"/>
@@ -36085,7 +38162,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5829300" y="3295015"/>
+          <a:off x="5829300" y="3305175"/>
           <a:ext cx="1534160" cy="578485"/>
           <a:chOff x="2384" y="1637"/>
           <a:chExt cx="2453" cy="836"/>
@@ -36392,7 +38469,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5829300" y="3956685"/>
+          <a:off x="5829300" y="3966845"/>
           <a:ext cx="1534160" cy="567055"/>
           <a:chOff x="2384" y="1637"/>
           <a:chExt cx="2453" cy="836"/>
@@ -36699,7 +38776,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7995285" y="1332230"/>
+          <a:off x="7995285" y="1342390"/>
           <a:ext cx="1534795" cy="567055"/>
           <a:chOff x="2384" y="1637"/>
           <a:chExt cx="2453" cy="836"/>
@@ -37006,7 +39083,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7984490" y="2644775"/>
+          <a:off x="7984490" y="2654935"/>
           <a:ext cx="1534795" cy="567055"/>
           <a:chOff x="2384" y="1637"/>
           <a:chExt cx="2453" cy="836"/>
@@ -37313,7 +39390,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10135235" y="2634615"/>
+          <a:off x="10135235" y="2644775"/>
           <a:ext cx="1533525" cy="567055"/>
           <a:chOff x="2384" y="1637"/>
           <a:chExt cx="2453" cy="836"/>
@@ -37620,7 +39697,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7378065" y="1617980"/>
+          <a:off x="7378065" y="1628140"/>
           <a:ext cx="594360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -37674,7 +39751,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7390765" y="2937510"/>
+          <a:off x="7390765" y="2947670"/>
           <a:ext cx="594360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -37728,7 +39805,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9532620" y="2936875"/>
+          <a:off x="9532620" y="2947035"/>
           <a:ext cx="594360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -37782,7 +39859,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2136140" y="615950"/>
+          <a:off x="2136140" y="626110"/>
           <a:ext cx="1329690" cy="541655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -37936,7 +40013,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2136140" y="1243965"/>
+          <a:off x="2136140" y="1254125"/>
           <a:ext cx="1329690" cy="553085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -38090,7 +40167,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2136140" y="1883410"/>
+          <a:off x="2136140" y="1893570"/>
           <a:ext cx="1329690" cy="541655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -38244,7 +40321,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2136140" y="2511425"/>
+          <a:off x="2136140" y="2521585"/>
           <a:ext cx="1330325" cy="553720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -38398,7 +40475,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2136140" y="3163570"/>
+          <a:off x="2136140" y="3173730"/>
           <a:ext cx="1329690" cy="541655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -38552,7 +40629,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2136140" y="3791585"/>
+          <a:off x="2136140" y="3801745"/>
           <a:ext cx="1329690" cy="528955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -38706,7 +40783,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2136140" y="4418965"/>
+          <a:off x="2136140" y="4429125"/>
           <a:ext cx="1329690" cy="541020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -38860,7 +40937,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2136140" y="5057775"/>
+          <a:off x="2136140" y="5067935"/>
           <a:ext cx="1329690" cy="554355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -39014,7 +41091,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2136140" y="5698490"/>
+          <a:off x="2136140" y="5708650"/>
           <a:ext cx="1329690" cy="541655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -39168,7 +41245,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3481705" y="909320"/>
+          <a:off x="3481705" y="919480"/>
           <a:ext cx="2338705" cy="1978660"/>
         </a:xfrm>
         <a:custGeom>
@@ -39264,7 +41341,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3461385" y="942340"/>
+          <a:off x="3461385" y="952500"/>
           <a:ext cx="2317750" cy="612775"/>
         </a:xfrm>
         <a:custGeom>
@@ -39360,7 +41437,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3474720" y="2193290"/>
+          <a:off x="3474720" y="2203450"/>
           <a:ext cx="2317750" cy="2080260"/>
         </a:xfrm>
         <a:custGeom>
@@ -39555,7 +41632,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3471545" y="1620520"/>
+          <a:off x="3471545" y="1630680"/>
           <a:ext cx="2338705" cy="1184275"/>
         </a:xfrm>
         <a:custGeom>
@@ -39659,7 +41736,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3491230" y="3281680"/>
+          <a:off x="3491230" y="3291840"/>
           <a:ext cx="5122545" cy="1828800"/>
         </a:xfrm>
         <a:custGeom>
@@ -39771,7 +41848,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3471545" y="2275205"/>
+          <a:off x="3471545" y="2285365"/>
           <a:ext cx="2327910" cy="3725545"/>
         </a:xfrm>
         <a:custGeom>
@@ -40116,40 +42193,245 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="C38:AC56"/>
+  <dimension ref="C2:AN56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.64285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="2.64285714285714" defaultRowHeight="18.4"/>
   <cols>
-    <col min="1" max="16379" width="2.64285714285714" customWidth="1"/>
+    <col min="1" max="16381" width="2.64285714285714" style="6" customWidth="1"/>
+    <col min="16382" max="16384" width="2.64285714285714" style="6"/>
   </cols>
   <sheetData>
+    <row r="2" spans="7:22">
+      <c r="G2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="22:40">
+      <c r="V4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+    </row>
+    <row r="5" ht="19" spans="22:40">
+      <c r="V5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+    </row>
+    <row r="6" ht="19" spans="22:40">
+      <c r="V6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+    </row>
+    <row r="7" ht="19" spans="22:40">
+      <c r="V7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+    </row>
+    <row r="8" ht="19" spans="22:40">
+      <c r="V8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+    </row>
+    <row r="9" ht="19" spans="22:40">
+      <c r="V9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+    </row>
+    <row r="10" spans="22:40">
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+    </row>
     <row r="38" spans="17:24">
-      <c r="Q38" s="2"/>
-      <c r="X38" s="2"/>
+      <c r="Q38" s="10"/>
+      <c r="X38" s="10"/>
     </row>
     <row r="39" spans="13:28">
-      <c r="M39" s="2"/>
-      <c r="AB39" s="2"/>
+      <c r="M39" s="10"/>
+      <c r="AB39" s="10"/>
     </row>
     <row r="47" spans="21:21">
-      <c r="U47" s="1"/>
+      <c r="U47" s="7"/>
     </row>
     <row r="48" spans="29:29">
-      <c r="AC48" s="2"/>
+      <c r="AC48" s="10"/>
     </row>
     <row r="50" spans="3:3">
-      <c r="C50" s="1"/>
+      <c r="C50" s="7"/>
     </row>
     <row r="56" spans="24:24">
-      <c r="X56" s="2"/>
+      <c r="X56" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="V4:AG4"/>
+    <mergeCell ref="AH4:AN4"/>
+    <mergeCell ref="V5:AG5"/>
+    <mergeCell ref="AH5:AN5"/>
+    <mergeCell ref="V6:AG6"/>
+    <mergeCell ref="AH6:AN6"/>
+    <mergeCell ref="V7:AG7"/>
+    <mergeCell ref="AH7:AN7"/>
+    <mergeCell ref="V8:AG8"/>
+    <mergeCell ref="AH8:AN8"/>
+    <mergeCell ref="V9:AG9"/>
+    <mergeCell ref="AH9:AN9"/>
+    <mergeCell ref="V10:AG10"/>
+    <mergeCell ref="AH10:AN10"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -40158,7 +42440,7 @@
   <sheetPr/>
   <dimension ref="C2:C39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
@@ -40169,22 +42451,22 @@
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -40199,7 +42481,7 @@
   <sheetPr/>
   <dimension ref="C3:BD56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AJ30" sqref="AJ30"/>
     </sheetView>
   </sheetViews>
@@ -40210,33 +42492,33 @@
   <sheetData>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="17:24">
       <c r="Q38" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="13:28">
       <c r="M39" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="21:21">
@@ -40244,26 +42526,26 @@
     </row>
     <row r="48" spans="29:29">
       <c r="AC48" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="3:56">
       <c r="C49" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="BD49" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="3:56">
       <c r="C50" s="1"/>
       <c r="BD50" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="24:24">
       <c r="X56" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -40278,8 +42560,8 @@
   <sheetPr/>
   <dimension ref="C9:AE30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="AQ32" sqref="AQ32"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.64285714285714" defaultRowHeight="17.6"/>
@@ -40308,74 +42590,74 @@
       <c r="X27" s="2"/>
     </row>
     <row r="29" spans="10:31">
-      <c r="J29" s="6" t="s">
-        <v>14</v>
+      <c r="J29" s="5" t="s">
+        <v>25</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7" t="s">
-        <v>15</v>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5" t="s">
+        <v>26</v>
       </c>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7" t="s">
-        <v>16</v>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5" t="s">
+        <v>27</v>
       </c>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7" t="s">
-        <v>17</v>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5" t="s">
+        <v>28</v>
       </c>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7" t="s">
-        <v>18</v>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5" t="s">
+        <v>29</v>
       </c>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7" t="s">
-        <v>19</v>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5" t="s">
+        <v>30</v>
       </c>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7" t="s">
-        <v>20</v>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5" t="s">
+        <v>31</v>
       </c>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7" t="s">
-        <v>21</v>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5" t="s">
+        <v>32</v>
       </c>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7" t="s">
-        <v>22</v>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5" t="s">
+        <v>33</v>
       </c>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7" t="s">
-        <v>23</v>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5" t="s">
+        <v>34</v>
       </c>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7" t="s">
-        <v>24</v>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5" t="s">
+        <v>35</v>
       </c>
-      <c r="AE29" s="7"/>
+      <c r="AE29" s="5"/>
     </row>
     <row r="30" spans="10:31">
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -40432,74 +42714,74 @@
       <c r="X27" s="2"/>
     </row>
     <row r="29" spans="10:31">
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5">
+        <v>60</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5">
+        <v>52</v>
+      </c>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5">
+        <v>43</v>
+      </c>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5">
+        <v>44</v>
+      </c>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5">
+        <v>27</v>
+      </c>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5">
+        <v>15</v>
+      </c>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5">
+        <v>32</v>
+      </c>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5">
+        <v>38</v>
+      </c>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5">
         <v>14</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7">
-        <v>60</v>
-      </c>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7">
-        <v>52</v>
-      </c>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7">
-        <v>43</v>
-      </c>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7">
-        <v>44</v>
-      </c>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7">
-        <v>27</v>
-      </c>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7">
-        <v>15</v>
-      </c>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7">
-        <v>32</v>
-      </c>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7">
-        <v>38</v>
-      </c>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7">
-        <v>14</v>
-      </c>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7">
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5">
         <v>23</v>
       </c>
-      <c r="AE29" s="7"/>
+      <c r="AE29" s="5"/>
     </row>
     <row r="30" spans="10:31">
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -40535,339 +42817,339 @@
     <col min="1" max="16379" width="2.64285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="21:29">
+    <row r="2" ht="18.4" spans="21:29">
       <c r="U2" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="21:29">
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
     </row>
     <row r="4" spans="21:29">
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
     </row>
     <row r="5" spans="21:29">
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
     </row>
     <row r="6" spans="21:29">
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="21:29">
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
     </row>
     <row r="8" spans="21:29">
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
     </row>
     <row r="9" spans="21:29">
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
     </row>
     <row r="10" spans="21:29">
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="21:29">
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
     </row>
     <row r="12" spans="21:29">
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
     </row>
     <row r="13" spans="21:29">
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
     </row>
     <row r="14" spans="21:29">
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
     </row>
     <row r="15" spans="21:29">
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
     </row>
     <row r="16" spans="21:29">
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
     </row>
     <row r="17" spans="21:29">
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
     </row>
     <row r="18" spans="21:29">
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
     </row>
     <row r="19" spans="21:29">
-      <c r="U19" s="5" t="s">
-        <v>26</v>
+      <c r="U19" s="4" t="s">
+        <v>37</v>
       </c>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
     </row>
     <row r="20" spans="21:29">
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
     </row>
     <row r="21" spans="21:29">
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
     </row>
     <row r="22" spans="21:29">
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
     </row>
     <row r="23" spans="21:29">
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
     </row>
     <row r="24" spans="21:29">
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
     </row>
     <row r="25" spans="21:29">
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
     </row>
     <row r="26" spans="21:29">
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
     </row>
     <row r="27" spans="21:29">
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
     </row>
     <row r="28" spans="21:29">
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
     </row>
     <row r="29" spans="21:29">
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
     </row>
     <row r="30" spans="21:29">
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
     </row>
     <row r="31" spans="21:29">
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
     </row>
     <row r="38" spans="17:24">
       <c r="Q38" s="2"/>
